--- a/biology/Mycologie/Tremella_foliacea/Tremella_foliacea.xlsx
+++ b/biology/Mycologie/Tremella_foliacea/Tremella_foliacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tremella foliacea est une espèce de champignons de la famille des Tremellaceae
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (19 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (19 janvier 2023) :
 Tremella foliacea var. communis Alb. &amp; Schwein., 1805
 Tremella foliacea var. ferruginea (Sm.) Kobayasi, 1939
 Tremella foliacea var. fimbriata (Pers.) S.Lundell, 1941
@@ -548,10 +562,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Tremella foliacea Pers., 1800[1].
-Tremella foliacea a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Tremella foliacea Pers., 1800.
+Tremella foliacea a pour synonymes :
 Cryptococcus skinneri Phaff &amp; Carmo Souza, 1962
 Exidia foliacea (Pers.) P. Karst., 1889
 Exidia saccharina var. foliacea (Pers.) Pat., 1900
